--- a/data/trans_orig/P05A_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P05A_R-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>325859</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>298129</v>
+        <v>299269</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>353915</v>
+        <v>358464</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3158395538958798</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2889626344231583</v>
+        <v>0.2900668410707387</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3430324885581362</v>
+        <v>0.347442116434714</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>445</v>
@@ -765,19 +765,19 @@
         <v>452683</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>419948</v>
+        <v>418180</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>486932</v>
+        <v>486697</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3442160556488478</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.319324972988866</v>
+        <v>0.317980349197902</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.370258318095921</v>
+        <v>0.370079611351693</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>776</v>
@@ -786,19 +786,19 @@
         <v>778542</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>738889</v>
+        <v>733645</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>824786</v>
+        <v>823068</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3317410929484879</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.314844919032727</v>
+        <v>0.312610368431045</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3514462818014769</v>
+        <v>0.3507142120345614</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>705864</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>677808</v>
+        <v>673259</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>733594</v>
+        <v>732454</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6841604461041203</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6569675114418638</v>
+        <v>0.6525578835652858</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7110373655768417</v>
+        <v>0.7099331589292613</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>846</v>
@@ -836,19 +836,19 @@
         <v>862430</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>828181</v>
+        <v>828416</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>895165</v>
+        <v>896933</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6557839443511522</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6297416819040789</v>
+        <v>0.6299203886483069</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.680675027011134</v>
+        <v>0.6820196508020978</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1553</v>
@@ -857,19 +857,19 @@
         <v>1568293</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1522049</v>
+        <v>1523767</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1607946</v>
+        <v>1613190</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6682589070515121</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6485537181985229</v>
+        <v>0.6492857879654386</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6851550809672727</v>
+        <v>0.6873896315689549</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>462380</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>428125</v>
+        <v>429011</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>501349</v>
+        <v>502173</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2730464331612447</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2528179833763762</v>
+        <v>0.2533411487656093</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2960581184560723</v>
+        <v>0.2965450587986103</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>535</v>
@@ -982,19 +982,19 @@
         <v>551420</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>508915</v>
+        <v>513228</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>591227</v>
+        <v>589457</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3473135849198336</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3205412926418451</v>
+        <v>0.3232578600198747</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3723858595547341</v>
+        <v>0.3712712752647812</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>977</v>
@@ -1003,19 +1003,19 @@
         <v>1013801</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>962305</v>
+        <v>966414</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1071102</v>
+        <v>1070724</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3089833057554321</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2932884784344097</v>
+        <v>0.2945408352593716</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3264474318820484</v>
+        <v>0.3263323039716717</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1231033</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1192064</v>
+        <v>1191240</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1265288</v>
+        <v>1264402</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7269535668387553</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7039418815439277</v>
+        <v>0.7034549412013897</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7471820166236239</v>
+        <v>0.7466588512343907</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1019</v>
@@ -1053,19 +1053,19 @@
         <v>1036253</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>996446</v>
+        <v>998216</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1078758</v>
+        <v>1074445</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6526864150801664</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6276141404452659</v>
+        <v>0.6287287247352189</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6794587073581549</v>
+        <v>0.6767421399801264</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2226</v>
@@ -1074,19 +1074,19 @@
         <v>2267285</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2209984</v>
+        <v>2210362</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2318781</v>
+        <v>2314672</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6910166942445679</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6735525681179514</v>
+        <v>0.6736676960283284</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.70671152156559</v>
+        <v>0.7054591647406284</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>179139</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>158252</v>
+        <v>156221</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>202589</v>
+        <v>202039</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3248762963444508</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2869965741524166</v>
+        <v>0.2833134712273294</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3674026372160359</v>
+        <v>0.3664058907720796</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>149</v>
@@ -1199,19 +1199,19 @@
         <v>158587</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>138120</v>
+        <v>138835</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>180668</v>
+        <v>180158</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3328788230247994</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.289916410562881</v>
+        <v>0.2914170823849903</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3792270749391011</v>
+        <v>0.3781564672104003</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>315</v>
@@ -1220,19 +1220,19 @@
         <v>337727</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>308664</v>
+        <v>308041</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>368630</v>
+        <v>372149</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3285856018839278</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3003094589430217</v>
+        <v>0.2997032412390326</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3586522978972389</v>
+        <v>0.3620755955827344</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>372269</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>348819</v>
+        <v>349369</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>393156</v>
+        <v>395187</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6751237036555492</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6325973627839641</v>
+        <v>0.6335941092279205</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7130034258475835</v>
+        <v>0.7166865287726706</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>303</v>
@@ -1270,19 +1270,19 @@
         <v>317825</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>295744</v>
+        <v>296254</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>338292</v>
+        <v>337577</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6671211769752006</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6207729250609008</v>
+        <v>0.6218435327895997</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7100835894371192</v>
+        <v>0.7085829176150099</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>664</v>
@@ -1291,19 +1291,19 @@
         <v>690093</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>659190</v>
+        <v>655671</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>719156</v>
+        <v>719779</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6714143981160722</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6413477021027609</v>
+        <v>0.6379244044172652</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6996905410569781</v>
+        <v>0.7002967587609674</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>967378</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>919850</v>
+        <v>920691</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1018650</v>
+        <v>1024420</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2952436177848578</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.280737893077274</v>
+        <v>0.2809946008227046</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3108917787262384</v>
+        <v>0.3126527666479297</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1129</v>
@@ -1416,19 +1416,19 @@
         <v>1162691</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1102129</v>
+        <v>1106220</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1214945</v>
+        <v>1219746</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3440730259216244</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3261511653591103</v>
+        <v>0.3273618084042295</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3595365054260688</v>
+        <v>0.3609574382287812</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2068</v>
@@ -1437,19 +1437,19 @@
         <v>2130069</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2053923</v>
+        <v>2054348</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>2203949</v>
+        <v>2205759</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3200348790026891</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3085942606506412</v>
+        <v>0.3086580730625506</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3311349645034042</v>
+        <v>0.3314070318207269</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>2309165</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2257893</v>
+        <v>2252123</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2356693</v>
+        <v>2355852</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7047563822151421</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6891082212737616</v>
+        <v>0.6873472333520709</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7192621069227259</v>
+        <v>0.7190053991772958</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2168</v>
@@ -1487,19 +1487,19 @@
         <v>2216506</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2164252</v>
+        <v>2159451</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2277068</v>
+        <v>2272977</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6559269740783755</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6404634945739313</v>
+        <v>0.6390425617712188</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6738488346408897</v>
+        <v>0.6726381915957704</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4443</v>
@@ -1508,19 +1508,19 @@
         <v>4525672</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4451792</v>
+        <v>4449982</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4601818</v>
+        <v>4601393</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6799651209973109</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6688650354965957</v>
+        <v>0.6685929681792731</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6914057393493588</v>
+        <v>0.6913419269374494</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>373258</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>341890</v>
+        <v>341386</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>404486</v>
+        <v>406910</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3834281088603024</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3512061864498046</v>
+        <v>0.3506877103154534</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4155073185506306</v>
+        <v>0.4179975109860962</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>495</v>
@@ -1872,19 +1872,19 @@
         <v>528388</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>494260</v>
+        <v>492640</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>567300</v>
+        <v>564362</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.395251597745514</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3697226859849012</v>
+        <v>0.3685104561487181</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4243590037903852</v>
+        <v>0.4221614551911749</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>847</v>
@@ -1893,19 +1893,19 @@
         <v>901646</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>855897</v>
+        <v>853100</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>956028</v>
+        <v>950392</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3902696490161267</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3704675998868208</v>
+        <v>0.3692568561790688</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4138082230054443</v>
+        <v>0.4113689533326572</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>600217</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>568989</v>
+        <v>566565</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>631585</v>
+        <v>632089</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6165718911396976</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5844926814493694</v>
+        <v>0.5820024890139038</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6487938135501954</v>
+        <v>0.6493122896845469</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>751</v>
@@ -1943,19 +1943,19 @@
         <v>808452</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>769540</v>
+        <v>772478</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>842580</v>
+        <v>844200</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6047484022544859</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5756409962096148</v>
+        <v>0.5778385448088252</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6302773140150988</v>
+        <v>0.6314895438512823</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1306</v>
@@ -1964,19 +1964,19 @@
         <v>1408670</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1354288</v>
+        <v>1359924</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1454419</v>
+        <v>1457216</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6097303509838734</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5861917769945557</v>
+        <v>0.5886310466673429</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6295324001131793</v>
+        <v>0.6307431438209313</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>771537</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>726475</v>
+        <v>730086</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>816323</v>
+        <v>815909</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3935534495906803</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3705675046664323</v>
+        <v>0.3724095362995699</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4163981230345281</v>
+        <v>0.4161872870469553</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>638</v>
@@ -2089,19 +2089,19 @@
         <v>686104</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>641060</v>
+        <v>644857</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>727737</v>
+        <v>725741</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3914088044398158</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3657125013023425</v>
+        <v>0.367878544243393</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4151595649791916</v>
+        <v>0.4140212648367675</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1371</v>
@@ -2110,19 +2110,19 @@
         <v>1457641</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1398368</v>
+        <v>1390316</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1520578</v>
+        <v>1513656</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3925410565925107</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3765790779759675</v>
+        <v>0.3744105896927999</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4094900110582367</v>
+        <v>0.407625857928223</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1188901</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1144115</v>
+        <v>1144529</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1233963</v>
+        <v>1230352</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6064465504093197</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5836018769654719</v>
+        <v>0.5838127129530448</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6294324953335677</v>
+        <v>0.6275904637004301</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>993</v>
@@ -2160,19 +2160,19 @@
         <v>1066804</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1025171</v>
+        <v>1027167</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1111848</v>
+        <v>1108051</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6085911955601842</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5848404350208084</v>
+        <v>0.5859787351632325</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6342874986976575</v>
+        <v>0.6321214557566071</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2113</v>
@@ -2181,19 +2181,19 @@
         <v>2255705</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2192768</v>
+        <v>2199690</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2314978</v>
+        <v>2323030</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6074589434074893</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5905099889417635</v>
+        <v>0.5923741420717767</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6234209220240327</v>
+        <v>0.6255894103072001</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>210516</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>188577</v>
+        <v>185163</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>234177</v>
+        <v>233805</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4374980332621526</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3919043014055078</v>
+        <v>0.3848088976006032</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4866714095119734</v>
+        <v>0.485898360517745</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>179</v>
@@ -2306,19 +2306,19 @@
         <v>199993</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>179243</v>
+        <v>178939</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>222852</v>
+        <v>222735</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4360644529723023</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3908219256969667</v>
+        <v>0.3901585579006441</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.485906512003656</v>
+        <v>0.4856524683233298</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>371</v>
@@ -2327,19 +2327,19 @@
         <v>410509</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>375217</v>
+        <v>382139</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>439999</v>
+        <v>444107</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4367984421523908</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3992468230099463</v>
+        <v>0.406611663606121</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.468177673220371</v>
+        <v>0.4725482774174208</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>270665</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>247004</v>
+        <v>247376</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>292604</v>
+        <v>296018</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5625019667378474</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5133285904880259</v>
+        <v>0.514101639482255</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.608095698594492</v>
+        <v>0.6151911023993967</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>233</v>
@@ -2377,19 +2377,19 @@
         <v>258638</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>235779</v>
+        <v>235896</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>279388</v>
+        <v>279692</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5639355470276977</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5140934879963441</v>
+        <v>0.5143475316766704</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6091780743030335</v>
+        <v>0.609841442099356</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>479</v>
@@ -2398,19 +2398,19 @@
         <v>529304</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>499814</v>
+        <v>495706</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>564596</v>
+        <v>557674</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5632015578476092</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5318223267796289</v>
+        <v>0.5274517225825791</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6007531769900536</v>
+        <v>0.593388336393879</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>1355311</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1294562</v>
+        <v>1289320</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1410892</v>
+        <v>1409624</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3968589356951853</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3790706989248376</v>
+        <v>0.37753569181298</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4131339613636659</v>
+        <v>0.412762813316555</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1312</v>
@@ -2523,19 +2523,19 @@
         <v>1414484</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1355490</v>
+        <v>1352874</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1477914</v>
+        <v>1479209</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3986283452442234</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3820026855703516</v>
+        <v>0.3812652486251987</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4165040565544584</v>
+        <v>0.4168688144824819</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2589</v>
@@ -2544,19 +2544,19 @@
         <v>2769795</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2685698</v>
+        <v>2683009</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>2857751</v>
+        <v>2852625</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3977605741933032</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3856836873957956</v>
+        <v>0.385297496435915</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4103915433434565</v>
+        <v>0.409655431791031</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>2059784</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2004203</v>
+        <v>2005471</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2120533</v>
+        <v>2125775</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6031410643048147</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5868660386363341</v>
+        <v>0.587237186683445</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6209293010751625</v>
+        <v>0.6224643081870203</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1977</v>
@@ -2594,19 +2594,19 @@
         <v>2133895</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2070465</v>
+        <v>2069170</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2192889</v>
+        <v>2195505</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6013716547557766</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5834959434455416</v>
+        <v>0.5831311855175181</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6179973144296484</v>
+        <v>0.6187347513748014</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3898</v>
@@ -2615,19 +2615,19 @@
         <v>4193679</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4105723</v>
+        <v>4110849</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4277776</v>
+        <v>4280465</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6022394258066968</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5896084566565435</v>
+        <v>0.590344568208969</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6143163126042044</v>
+        <v>0.6147025035640851</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>274878</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>247918</v>
+        <v>249777</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>301859</v>
+        <v>300634</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3643924066894024</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3286519352230318</v>
+        <v>0.3311168740408197</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4001597960319535</v>
+        <v>0.3985356117391108</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>302</v>
@@ -2979,19 +2979,19 @@
         <v>339184</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>307986</v>
+        <v>308516</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>371929</v>
+        <v>372376</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3417976534838063</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.310358900912344</v>
+        <v>0.3108935584184583</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3747943643077816</v>
+        <v>0.375245311830205</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>575</v>
@@ -3000,19 +3000,19 @@
         <v>614063</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>574257</v>
+        <v>574179</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>655867</v>
+        <v>654836</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.351555637212711</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3287664084616343</v>
+        <v>0.3287222457209078</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3754887958053068</v>
+        <v>0.3748984841251701</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>479469</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>452488</v>
+        <v>453713</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>506429</v>
+        <v>504570</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6356075933105976</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5998402039680465</v>
+        <v>0.6014643882608892</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6713480647769683</v>
+        <v>0.6688831259591802</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>588</v>
@@ -3050,19 +3050,19 @@
         <v>653170</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>620425</v>
+        <v>619978</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>684368</v>
+        <v>683838</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6582023465161937</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6252056356922187</v>
+        <v>0.6247546881697951</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6896410990876563</v>
+        <v>0.6891064415815417</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1077</v>
@@ -3071,19 +3071,19 @@
         <v>1132638</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1090834</v>
+        <v>1091865</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1172444</v>
+        <v>1172522</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.648444362787289</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.624511204194693</v>
+        <v>0.62510151587483</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6712335915383656</v>
+        <v>0.6712777542790922</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>720522</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>676138</v>
+        <v>676899</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>764596</v>
+        <v>760449</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3472197551779985</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3258312422201738</v>
+        <v>0.3261979354622137</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3684590935520018</v>
+        <v>0.3664607858249994</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>693</v>
@@ -3196,19 +3196,19 @@
         <v>728717</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>687464</v>
+        <v>684757</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>774466</v>
+        <v>769939</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.366502782544909</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3457545527997581</v>
+        <v>0.3443931866871081</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.389511797407294</v>
+        <v>0.3872349252290894</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1367</v>
@@ -3217,19 +3217,19 @@
         <v>1449239</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1390135</v>
+        <v>1392158</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1515858</v>
+        <v>1517394</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3566552714868359</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3421096963064568</v>
+        <v>0.3426075374833404</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3730499847460166</v>
+        <v>0.373427946416639</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>1354596</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1310522</v>
+        <v>1314669</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1398980</v>
+        <v>1398219</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6527802448220015</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6315409064479982</v>
+        <v>0.6335392141750007</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6741687577798262</v>
+        <v>0.6738020645377867</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1215</v>
@@ -3267,19 +3267,19 @@
         <v>1259583</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1213834</v>
+        <v>1218361</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1300836</v>
+        <v>1303543</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6334972174550909</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6104882025927058</v>
+        <v>0.6127650747709106</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6542454472002418</v>
+        <v>0.6556068133128919</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2492</v>
@@ -3288,19 +3288,19 @@
         <v>2614179</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2547560</v>
+        <v>2546024</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2673283</v>
+        <v>2671260</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6433447285131642</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6269500152539833</v>
+        <v>0.626572053583361</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.657890303693543</v>
+        <v>0.6573924625166596</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>220215</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>198563</v>
+        <v>198020</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>244591</v>
+        <v>248228</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.40267019203003</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3630793914136118</v>
+        <v>0.3620868295613201</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.447243477264662</v>
+        <v>0.4538934186581247</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>215</v>
@@ -3413,19 +3413,19 @@
         <v>226037</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>203518</v>
+        <v>202545</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>248688</v>
+        <v>250832</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4116207515924429</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3706129429851592</v>
+        <v>0.3688410551163508</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.452867635511899</v>
+        <v>0.4567732773659841</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>418</v>
@@ -3434,19 +3434,19 @@
         <v>446253</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>414718</v>
+        <v>412314</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>479044</v>
+        <v>479781</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4071546758960625</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3783826265190801</v>
+        <v>0.3761898933183432</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4370735157129614</v>
+        <v>0.4377454629204353</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>326671</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>302295</v>
+        <v>298658</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>348323</v>
+        <v>348866</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.59732980796997</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.552756522735338</v>
+        <v>0.5461065813418753</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6369206085863881</v>
+        <v>0.6379131704386799</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>311</v>
@@ -3484,19 +3484,19 @@
         <v>323103</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>300452</v>
+        <v>298308</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>345622</v>
+        <v>346595</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5883792484075571</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.547132364488101</v>
+        <v>0.5432267226340157</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6293870570148408</v>
+        <v>0.631158944883649</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>609</v>
@@ -3505,19 +3505,19 @@
         <v>649774</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>616983</v>
+        <v>616246</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>681309</v>
+        <v>683713</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5928453241039375</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5629264842870386</v>
+        <v>0.5622545370795647</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6216173734809198</v>
+        <v>0.6238101066816568</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>1215615</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1158363</v>
+        <v>1148529</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1269801</v>
+        <v>1271354</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3600380965856538</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3430813300845361</v>
+        <v>0.3401688349855168</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3760869241357199</v>
+        <v>0.3765468707544812</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1210</v>
@@ -3630,19 +3630,19 @@
         <v>1293939</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1233680</v>
+        <v>1233859</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1353427</v>
+        <v>1352576</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3665764018318597</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3495047829709155</v>
+        <v>0.34955541702957</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3834293404487216</v>
+        <v>0.3831883189827088</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2360</v>
@@ -3651,19 +3651,19 @@
         <v>2509554</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2433660</v>
+        <v>2428498</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>2595150</v>
+        <v>2594732</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3633798847375398</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3523905749893607</v>
+        <v>0.3516430826882035</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3757740007532047</v>
+        <v>0.3757135465082727</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>2160736</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2106550</v>
+        <v>2104997</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2217988</v>
+        <v>2227822</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6399619034143462</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6239130758642801</v>
+        <v>0.6234531292455187</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6569186699154638</v>
+        <v>0.6598311650144831</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2114</v>
@@ -3701,19 +3701,19 @@
         <v>2235855</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2176367</v>
+        <v>2177218</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2296114</v>
+        <v>2295935</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6334235981681402</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6165706595512787</v>
+        <v>0.6168116810172912</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6504952170290846</v>
+        <v>0.65044458297043</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4178</v>
@@ -3722,19 +3722,19 @@
         <v>4396591</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4310995</v>
+        <v>4311413</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4472485</v>
+        <v>4477647</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6366201152624602</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6242259992467954</v>
+        <v>0.6242864534917276</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6476094250106397</v>
+        <v>0.6483569173117969</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>111649</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>93422</v>
+        <v>94708</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>129391</v>
+        <v>131169</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1929872791748372</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1614827430991009</v>
+        <v>0.1637042231222986</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2236545988093591</v>
+        <v>0.2267290088281936</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>238</v>
@@ -4086,19 +4086,19 @@
         <v>149072</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>131266</v>
+        <v>131587</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>167077</v>
+        <v>166519</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1813439785392961</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1596840352489293</v>
+        <v>0.1600736115919239</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2032478899792939</v>
+        <v>0.2025683624110683</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>372</v>
@@ -4107,19 +4107,19 @@
         <v>260720</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>237238</v>
+        <v>236847</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>288013</v>
+        <v>289073</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.186153452526287</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1693873807520558</v>
+        <v>0.1691078860494663</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.205640272951454</v>
+        <v>0.2063974736329152</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>466880</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>449138</v>
+        <v>447360</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>485107</v>
+        <v>483821</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.807012720825163</v>
+        <v>0.8070127208251628</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7763454011906411</v>
+        <v>0.7732709911718064</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8385172569008993</v>
+        <v>0.8362957768777014</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1189</v>
@@ -4157,19 +4157,19 @@
         <v>672966</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>654961</v>
+        <v>655519</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>690772</v>
+        <v>690451</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8186560214607038</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7967521100207056</v>
+        <v>0.7974316375889318</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8403159647510703</v>
+        <v>0.8399263884080765</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1746</v>
@@ -4178,19 +4178,19 @@
         <v>1139847</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1112554</v>
+        <v>1111494</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1163329</v>
+        <v>1163720</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.813846547473713</v>
+        <v>0.8138465474737129</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7943597270485461</v>
+        <v>0.7936025263670847</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8306126192479445</v>
+        <v>0.8308921139505339</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>382591</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>343903</v>
+        <v>343676</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>426740</v>
+        <v>427320</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1715219704892322</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1541775128422329</v>
+        <v>0.1540756243267843</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1913145860086939</v>
+        <v>0.1915745501227648</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>529</v>
@@ -4303,19 +4303,19 @@
         <v>434088</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>397929</v>
+        <v>401565</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>473981</v>
+        <v>474033</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.1999124763492706</v>
+        <v>0.1999124763492705</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1832597840748737</v>
+        <v>0.1849341665570474</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2182842328161176</v>
+        <v>0.2183081644249467</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>857</v>
@@ -4324,19 +4324,19 @@
         <v>816680</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>763847</v>
+        <v>761206</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>875252</v>
+        <v>875324</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1855264008453413</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1735243830100545</v>
+        <v>0.1729243037782067</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1988323157897851</v>
+        <v>0.1988486904298708</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>1847975</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1803826</v>
+        <v>1803246</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1886663</v>
+        <v>1886890</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8284780295107679</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8086854139913061</v>
+        <v>0.8084254498772353</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8458224871577671</v>
+        <v>0.8459243756732158</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2392</v>
@@ -4374,19 +4374,19 @@
         <v>1737304</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1697411</v>
+        <v>1697359</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1773463</v>
+        <v>1769827</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8000875236507294</v>
+        <v>0.8000875236507293</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7817157671838824</v>
+        <v>0.7816918355750534</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8167402159251265</v>
+        <v>0.8150658334429527</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4056</v>
@@ -4395,19 +4395,19 @@
         <v>3585279</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3526707</v>
+        <v>3526635</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3638112</v>
+        <v>3640753</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8144735991546587</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8011676842102149</v>
+        <v>0.8011513095701293</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8264756169899456</v>
+        <v>0.8270756962217933</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>158770</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>136680</v>
+        <v>135715</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>186635</v>
+        <v>186075</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2231216578725669</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1920773839765322</v>
+        <v>0.1907210907353082</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2622799256453198</v>
+        <v>0.2614927815954822</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>230</v>
@@ -4520,19 +4520,19 @@
         <v>174900</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>154897</v>
+        <v>154587</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>195451</v>
+        <v>196024</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2384634889069167</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2111914075036481</v>
+        <v>0.2107674958829967</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2664825828395969</v>
+        <v>0.2672644585613677</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>377</v>
@@ -4541,19 +4541,19 @@
         <v>333671</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>301446</v>
+        <v>304174</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>364127</v>
+        <v>366301</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2309086094006913</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2086081819315056</v>
+        <v>0.2104964754965874</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2519850263052259</v>
+        <v>0.25348976910386</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>552817</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>524952</v>
+        <v>525512</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>574907</v>
+        <v>575872</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.776878342127433</v>
+        <v>0.7768783421274329</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7377200743546808</v>
+        <v>0.7385072184045176</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8079226160234679</v>
+        <v>0.8092789092646917</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>772</v>
@@ -4591,19 +4591,19 @@
         <v>558546</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>537995</v>
+        <v>537422</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>578549</v>
+        <v>578859</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7615365110930834</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7335174171604031</v>
+        <v>0.7327355414386324</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7888085924963519</v>
+        <v>0.7892325041170033</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1306</v>
@@ -4612,19 +4612,19 @@
         <v>1111362</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1080906</v>
+        <v>1078732</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1143587</v>
+        <v>1140859</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7690913905993088</v>
+        <v>0.7690913905993086</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7480149736947739</v>
+        <v>0.7465102308961399</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7913918180684945</v>
+        <v>0.7895035245034128</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>653010</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>603071</v>
+        <v>603608</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>704901</v>
+        <v>704218</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.1854783489124396</v>
+        <v>0.1854783489124397</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1712938566465902</v>
+        <v>0.1714463050131483</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2002172296667474</v>
+        <v>0.2000232108292778</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>997</v>
@@ -4737,19 +4737,19 @@
         <v>758060</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>713215</v>
+        <v>713997</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>804275</v>
+        <v>805732</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2034036219501236</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1913708310627492</v>
+        <v>0.1915804624844646</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2158039978469918</v>
+        <v>0.2161951309537334</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1606</v>
@@ -4758,19 +4758,19 @@
         <v>1411071</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1342390</v>
+        <v>1343306</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1484193</v>
+        <v>1478580</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1946959722404714</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1852196037336707</v>
+        <v>0.185346026317238</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2047852503762806</v>
+        <v>0.2040107620689394</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>2867673</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2815782</v>
+        <v>2816465</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2917612</v>
+        <v>2917075</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8145216510875603</v>
+        <v>0.8145216510875604</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7997827703332526</v>
+        <v>0.7999767891707222</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8287061433534098</v>
+        <v>0.8285536949868523</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4353</v>
@@ -4808,19 +4808,19 @@
         <v>2968816</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2922601</v>
+        <v>2921144</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3013661</v>
+        <v>3012879</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7965963780498764</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7841960021530081</v>
+        <v>0.7838048690462667</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8086291689372505</v>
+        <v>0.8084195375155356</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7108</v>
@@ -4829,19 +4829,19 @@
         <v>5836488</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5763366</v>
+        <v>5768979</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5905169</v>
+        <v>5904253</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8053040277595285</v>
+        <v>0.8053040277595287</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7952147496237195</v>
+        <v>0.7959892379310609</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8147803962663294</v>
+        <v>0.8146539736827623</v>
       </c>
     </row>
     <row r="15">
